--- a/config/colshp/colshp_run1.xlsx
+++ b/config/colshp/colshp_run1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="8">
   <si>
     <t>Trial</t>
   </si>
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
@@ -130,7 +130,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -141,16 +141,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="0">
         <v>3</v>
@@ -164,13 +164,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="0">
         <v>6</v>
@@ -201,16 +201,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="0">
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="0">
         <v>12</v>
@@ -221,7 +221,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0">
         <v>2</v>
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="0">
         <v>15</v>
@@ -241,16 +241,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="0">
         <v>18</v>
@@ -261,16 +261,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="0">
         <v>21</v>
@@ -281,16 +281,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0">
         <v>24</v>
@@ -301,7 +301,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="0">
         <v>1</v>
@@ -321,16 +321,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="0">
         <v>30</v>
@@ -341,13 +341,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0">
         <v>2</v>
       </c>
       <c r="D13" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>6</v>
@@ -361,13 +361,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0">
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>5</v>
@@ -381,16 +381,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="0">
         <v>39</v>
@@ -401,13 +401,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="0">
         <v>2</v>
       </c>
       <c r="D16" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>6</v>
@@ -421,7 +421,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0">
         <v>1</v>
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="0">
         <v>48</v>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="0">
         <v>51</v>
@@ -487,10 +487,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="0">
         <v>54</v>
@@ -501,16 +501,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="0">
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="0">
         <v>57</v>

--- a/config/colshp/colshp_run1.xlsx
+++ b/config/colshp/colshp_run1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="12">
   <si>
     <t>Trial</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>onset</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>filler</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>repeat</t>
   </si>
 </sst>
 </file>
@@ -82,18 +94,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="true"/>
-    <col min="2" max="2" width="5.77734375" customWidth="true"/>
-    <col min="3" max="3" width="5.21875" customWidth="true"/>
-    <col min="4" max="4" width="4.33203125" customWidth="true"/>
-    <col min="5" max="5" width="5.33203125" customWidth="true"/>
-    <col min="6" max="6" width="5.5546875" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="2" max="2" width="6.42578125" customWidth="true"/>
+    <col min="3" max="3" width="5.5703125" customWidth="true"/>
+    <col min="4" max="4" width="7" customWidth="true"/>
+    <col min="5" max="5" width="4.7109375" customWidth="true"/>
+    <col min="6" max="6" width="5.85546875" customWidth="true"/>
+    <col min="7" max="7" width="6.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -107,12 +120,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -126,13 +142,16 @@
       <c r="C2" s="0">
         <v>1</v>
       </c>
-      <c r="D2" s="0">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="0">
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0">
         <v>0</v>
       </c>
     </row>
@@ -144,15 +163,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0">
         <v>3</v>
       </c>
     </row>
@@ -161,18 +183,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
       </c>
-      <c r="D4" s="0">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="0">
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="0">
         <v>6</v>
       </c>
     </row>
@@ -186,13 +211,16 @@
       <c r="C5" s="0">
         <v>1</v>
       </c>
-      <c r="D5" s="0">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="0">
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0">
         <v>9</v>
       </c>
     </row>
@@ -201,18 +229,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="0">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="0">
         <v>12</v>
       </c>
     </row>
@@ -221,18 +252,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0">
-        <v>2</v>
-      </c>
-      <c r="D7" s="0">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="0">
         <v>15</v>
       </c>
     </row>
@@ -241,18 +275,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
       </c>
-      <c r="D8" s="0">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="0">
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="0">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0">
         <v>18</v>
       </c>
     </row>
@@ -261,18 +298,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="0">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0">
         <v>21</v>
       </c>
     </row>
@@ -284,15 +324,18 @@
         <v>1</v>
       </c>
       <c r="C10" s="0">
-        <v>2</v>
-      </c>
-      <c r="D10" s="0">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0">
         <v>24</v>
       </c>
     </row>
@@ -301,18 +344,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0">
-        <v>2</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="0">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="0">
         <v>27</v>
       </c>
     </row>
@@ -326,13 +372,16 @@
       <c r="C12" s="0">
         <v>2</v>
       </c>
-      <c r="D12" s="0">
-        <v>2</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="0">
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="0">
         <v>30</v>
       </c>
     </row>
@@ -344,15 +393,18 @@
         <v>2</v>
       </c>
       <c r="C13" s="0">
-        <v>2</v>
-      </c>
-      <c r="D13" s="0">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="0">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="0">
         <v>33</v>
       </c>
     </row>
@@ -361,18 +413,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="0">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="0">
         <v>36</v>
       </c>
     </row>
@@ -381,18 +436,21 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="0">
-        <v>2</v>
-      </c>
-      <c r="D15" s="0">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="0">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="0">
         <v>39</v>
       </c>
     </row>
@@ -401,18 +459,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0">
         <v>2</v>
       </c>
-      <c r="D16" s="0">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="0">
+      <c r="D16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0">
         <v>42</v>
       </c>
     </row>
@@ -421,18 +482,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0">
         <v>1</v>
       </c>
-      <c r="D17" s="0">
-        <v>2</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="0">
+      <c r="D17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="0">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="0">
         <v>45</v>
       </c>
     </row>
@@ -441,18 +505,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0">
-        <v>2</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="0">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="0">
         <v>48</v>
       </c>
     </row>
@@ -461,18 +528,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="0">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0">
-        <v>2</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="0">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="0">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="0">
         <v>51</v>
       </c>
     </row>
@@ -481,18 +551,21 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="0">
         <v>2</v>
       </c>
-      <c r="D20" s="0">
-        <v>2</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="0">
+      <c r="D20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="0">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="0">
         <v>54</v>
       </c>
     </row>
@@ -501,18 +574,21 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="0">
-        <v>2</v>
-      </c>
-      <c r="D21" s="0">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="0">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="0">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="0">
         <v>57</v>
       </c>
     </row>
